--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4018229.226028288</v>
+        <v>4016349.046257959</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7616059.302096048</v>
+        <v>7616059.30209605</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>133.35833737073</v>
       </c>
       <c r="F2" t="n">
-        <v>103.2376789178145</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>134.6751203255735</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>230.2634979541061</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>168.8841199149501</v>
       </c>
       <c r="H5" t="n">
-        <v>152.1157524910534</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>7.272703900894549</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>13.808901714272</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>177.7048348993197</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>219.1570781143516</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>216.6993815150876</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174115</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>36.31437750815286</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>235.5975646709551</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1613,19 +1613,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,16 +1658,16 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174123</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002169</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1822,7 +1822,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>59.77945773665014</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -2002,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>70.41761368552098</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>98.92370107808136</v>
       </c>
       <c r="S19" t="n">
-        <v>186.8801586578918</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>210.5069097326778</v>
@@ -2062,13 +2062,13 @@
         <v>241.0969919981166</v>
       </c>
       <c r="W19" t="n">
-        <v>275.4823470108796</v>
+        <v>149.3819392193793</v>
       </c>
       <c r="X19" t="n">
-        <v>214.6690040633257</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>207.5440020263833</v>
       </c>
     </row>
     <row r="20">
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>70.41761368552064</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.92370107808139</v>
       </c>
       <c r="S22" t="n">
         <v>186.8801586578918</v>
@@ -2293,7 +2293,7 @@
         <v>210.5069097326778</v>
       </c>
       <c r="U22" t="n">
-        <v>275.1967010728659</v>
+        <v>39.14661165392152</v>
       </c>
       <c r="V22" t="n">
         <v>241.0969919981166</v>
@@ -2305,7 +2305,7 @@
         <v>214.6690040633257</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="23">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>98.92370107808135</v>
       </c>
       <c r="S25" t="n">
         <v>186.8801586578918</v>
@@ -2530,19 +2530,19 @@
         <v>210.5069097326778</v>
       </c>
       <c r="U25" t="n">
-        <v>275.1967010728659</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>241.0969919981166</v>
       </c>
       <c r="W25" t="n">
-        <v>275.4823470108796</v>
+        <v>179.2356473439442</v>
       </c>
       <c r="X25" t="n">
         <v>214.6690040633257</v>
       </c>
       <c r="Y25" t="n">
-        <v>70.41761368552099</v>
+        <v>207.5440020263833</v>
       </c>
     </row>
     <row r="26">
@@ -2713,16 +2713,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>93.73299755169641</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>70.4176136855214</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>98.92370107808141</v>
       </c>
       <c r="S28" t="n">
-        <v>186.8801586578918</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T28" t="n">
-        <v>210.5069097326778</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.1967010728659</v>
@@ -2773,13 +2773,13 @@
         <v>241.0969919981166</v>
       </c>
       <c r="W28" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>70.41761368552118</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>99.3785941385606</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>98.92370107808141</v>
       </c>
       <c r="S31" t="n">
-        <v>186.8801586578918</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T31" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U31" t="n">
-        <v>275.1967010728659</v>
+        <v>126.7476430361205</v>
       </c>
       <c r="V31" t="n">
         <v>241.0969919981166</v>
       </c>
       <c r="W31" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>214.6690040633257</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3910,13 +3910,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463133</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1689.203741822952</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.241224882541</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D2" t="n">
-        <v>961.9755262757901</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="E2" t="n">
-        <v>576.1872736775458</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2465.942913862886</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>2075.803581887074</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,16 +4407,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>562.6765899837193</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>562.6765899837193</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U4" t="n">
-        <v>562.6765899837193</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="V4" t="n">
-        <v>562.6765899837193</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="W4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1190.010945960184</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="C5" t="n">
-        <v>1190.010945960184</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="D5" t="n">
-        <v>1190.010945960184</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.010945960184</v>
+        <v>558.6732226496763</v>
       </c>
       <c r="F5" t="n">
-        <v>779.0250411705763</v>
+        <v>551.7277219004728</v>
       </c>
       <c r="G5" t="n">
-        <v>361.0612330687632</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>1563.476704221264</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>1190.010945960184</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1190.010945960184</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="6">
@@ -4662,7 +4662,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>365.9274674422038</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>219.0375199442935</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>219.0375199442935</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>61.28914737682359</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245969</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245969</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>609.3508327416157</v>
+        <v>955.5060781830496</v>
       </c>
       <c r="C8" t="n">
-        <v>240.388315801204</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D8" t="n">
-        <v>240.388315801204</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E8" t="n">
-        <v>240.388315801204</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>233.4428150520005</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2025.937460860856</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>1694.874573517285</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>1342.105918247171</v>
       </c>
       <c r="X8" t="n">
-        <v>1386.090004781549</v>
+        <v>1342.105918247171</v>
       </c>
       <c r="Y8" t="n">
-        <v>995.9506728057374</v>
+        <v>1342.105918247171</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4990,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5030,61 +5030,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>901.6749225845922</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028601</v>
       </c>
       <c r="C13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028601</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,10 +5215,10 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
         <v>1387.841167119728</v>
@@ -5227,22 +5227,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247862</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U13" t="n">
-        <v>964.1357418247862</v>
+        <v>862.1113288466636</v>
       </c>
       <c r="V13" t="n">
-        <v>726.1584037733164</v>
+        <v>607.4268406407767</v>
       </c>
       <c r="W13" t="n">
-        <v>436.7412337363558</v>
+        <v>318.0096706038161</v>
       </c>
       <c r="X13" t="n">
-        <v>208.7516828383384</v>
+        <v>318.0096706038161</v>
       </c>
       <c r="Y13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028601</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>901.6749225845922</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864554</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528587</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183167</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2413.343925613455</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028576</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028576</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028576</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028576</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028576</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028576</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028576</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028576</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387593</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011509</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952639</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583033</v>
+        <v>385.5899330013841</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>157.6003821033668</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028576</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5513,13 +5513,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5595,19 +5595,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.3459941729333</v>
+        <v>391.7620218580375</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>233.9780119864048</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>233.9780119864048</v>
       </c>
       <c r="E19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R19" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S19" t="n">
-        <v>1397.590392029363</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="T19" t="n">
-        <v>1184.957149875143</v>
+        <v>1273.802056521416</v>
       </c>
       <c r="U19" t="n">
-        <v>906.9806841449757</v>
+        <v>995.8255907912489</v>
       </c>
       <c r="V19" t="n">
-        <v>663.448368995363</v>
+        <v>752.2932756416362</v>
       </c>
       <c r="W19" t="n">
-        <v>385.1833720146766</v>
+        <v>601.4024279452934</v>
       </c>
       <c r="X19" t="n">
-        <v>168.3459941729333</v>
+        <v>601.4024279452934</v>
       </c>
       <c r="Y19" t="n">
-        <v>168.3459941729333</v>
+        <v>391.7620218580375</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
         <v>488.1932370805469</v>
@@ -5747,13 +5747,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5771,10 +5771,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2507.25999687553</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.3459941729333</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>168.3459941729333</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>168.3459941729333</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>120.53002873665</v>
       </c>
       <c r="K22" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L22" t="n">
         <v>540.2879676172993</v>
@@ -5932,28 +5932,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R22" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S22" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T22" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493242</v>
       </c>
       <c r="U22" t="n">
-        <v>906.9806841449756</v>
+        <v>1045.492187519584</v>
       </c>
       <c r="V22" t="n">
-        <v>663.4483689953629</v>
+        <v>801.9598723699714</v>
       </c>
       <c r="W22" t="n">
-        <v>385.1833720146765</v>
+        <v>523.694875389285</v>
       </c>
       <c r="X22" t="n">
-        <v>168.3459941729333</v>
+        <v>306.8574975475418</v>
       </c>
       <c r="Y22" t="n">
-        <v>168.3459941729333</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
@@ -6002,34 +6002,34 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6066,22 +6066,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>233.9780119864048</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>233.9780119864048</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>233.9780119864048</v>
       </c>
       <c r="E25" t="n">
         <v>97.21709146028587</v>
@@ -6145,52 +6145,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366501</v>
       </c>
       <c r="K25" t="n">
-        <v>281.6456777937157</v>
+        <v>281.6456777937159</v>
       </c>
       <c r="L25" t="n">
-        <v>540.2879676172993</v>
+        <v>540.2879676172997</v>
       </c>
       <c r="M25" t="n">
-        <v>822.7849551969362</v>
+        <v>822.7849551969368</v>
       </c>
       <c r="N25" t="n">
-        <v>1104.259309036938</v>
+        <v>1104.259309036939</v>
       </c>
       <c r="O25" t="n">
-        <v>1349.064531854789</v>
+        <v>1349.06453185479</v>
       </c>
       <c r="P25" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q25" t="n">
         <v>1586.358229057537</v>
       </c>
       <c r="R25" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S25" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T25" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U25" t="n">
-        <v>906.9806841449756</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="V25" t="n">
-        <v>663.4483689953629</v>
+        <v>841.5019043436303</v>
       </c>
       <c r="W25" t="n">
-        <v>385.1833720146765</v>
+        <v>660.4557959154039</v>
       </c>
       <c r="X25" t="n">
-        <v>168.3459941729333</v>
+        <v>443.6184180736607</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>233.9780119864048</v>
       </c>
     </row>
     <row r="26">
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.3459941729336</v>
+        <v>349.6808968386827</v>
       </c>
       <c r="C28" t="n">
-        <v>168.3459941729336</v>
+        <v>191.8968869670499</v>
       </c>
       <c r="D28" t="n">
-        <v>168.3459941729336</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>168.3459941729336</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6382,13 +6382,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>120.5300287366501</v>
+        <v>120.5300287366499</v>
       </c>
       <c r="K28" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L28" t="n">
-        <v>540.2879676172994</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M28" t="n">
         <v>822.7849551969364</v>
@@ -6400,34 +6400,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P28" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q28" t="n">
         <v>1586.358229057537</v>
       </c>
       <c r="R28" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S28" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="T28" t="n">
-        <v>1184.957149875143</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="U28" t="n">
-        <v>906.9806841449758</v>
+        <v>1019.690995917295</v>
       </c>
       <c r="V28" t="n">
-        <v>663.4483689953631</v>
+        <v>776.1586807676819</v>
       </c>
       <c r="W28" t="n">
-        <v>385.1833720146767</v>
+        <v>776.1586807676819</v>
       </c>
       <c r="X28" t="n">
-        <v>168.3459941729336</v>
+        <v>559.3213029259387</v>
       </c>
       <c r="Y28" t="n">
-        <v>168.3459941729336</v>
+        <v>349.6808968386827</v>
       </c>
     </row>
     <row r="29">
@@ -6443,31 +6443,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6482,7 +6482,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6549,16 +6549,16 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1632.773754790662</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>2302.237516093321</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>333.3372842237005</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>333.3372842237005</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>333.3372842237005</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>333.3372842237005</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>197.5995097820642</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>197.5995097820642</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>197.5995097820642</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>120.5300287366501</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K31" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L31" t="n">
-        <v>540.2879676172994</v>
+        <v>540.2879676172992</v>
       </c>
       <c r="M31" t="n">
-        <v>822.7849551969366</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N31" t="n">
         <v>1104.259309036938</v>
       </c>
       <c r="O31" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P31" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q31" t="n">
         <v>1586.358229057537</v>
       </c>
       <c r="R31" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S31" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T31" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493242</v>
       </c>
       <c r="U31" t="n">
-        <v>906.9806841449758</v>
+        <v>957.0062972345347</v>
       </c>
       <c r="V31" t="n">
-        <v>663.4483689953631</v>
+        <v>713.473982084922</v>
       </c>
       <c r="W31" t="n">
-        <v>385.1833720146767</v>
+        <v>713.473982084922</v>
       </c>
       <c r="X31" t="n">
-        <v>168.3459941729335</v>
+        <v>713.473982084922</v>
       </c>
       <c r="Y31" t="n">
-        <v>168.3459941729335</v>
+        <v>503.833575997666</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,49 +6683,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6795,7 +6795,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229675</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,22 +6923,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,19 +6947,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="38">
@@ -7151,25 +7151,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823786</v>
@@ -7181,7 +7181,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7196,25 +7196,25 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1894.594339433114</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504505</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.686330625496</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7424,7 +7424,7 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899128</v>
@@ -7494,22 +7494,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
@@ -7570,7 +7570,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254961</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.0503551525399</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,13 +8772,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>124.3400780863225</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>274.3657496970649</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>199.7396287231148</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>73.53204524670076</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>288.4091825776756</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>18.73797368291358</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>285.1031356539331</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>349.7653003338571</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10197,19 +10197,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>29.47535963978268</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10662,16 +10662,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>202.5230052237941</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928318</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10908,7 +10908,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>148.1350559470645</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11072,10 +11072,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>169.2863157167187</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>185.2331835502364</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>16.54007865287289</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338643</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>158.8051956154446</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.7913288562259</v>
+        <v>168.7913288562258</v>
       </c>
       <c r="C19" t="n">
-        <v>85.78855608739543</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>137.5748216925009</v>
       </c>
       <c r="E19" t="n">
-        <v>135.3933113208577</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>134.3803966972198</v>
       </c>
       <c r="G19" t="n">
-        <v>155.4529171376662</v>
+        <v>155.4529171376661</v>
       </c>
       <c r="H19" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I19" t="n">
-        <v>99.37859413856057</v>
+        <v>99.37859413856056</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.92370107808138</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>126.1004077915002</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y19" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,7 +24133,7 @@
         <v>137.5748216925009</v>
       </c>
       <c r="E22" t="n">
-        <v>64.97569763533711</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F22" t="n">
         <v>134.3803966972198</v>
@@ -24145,7 +24145,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I22" t="n">
-        <v>99.37859413856057</v>
+        <v>99.37859413856059</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.92370107808138</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>236.0500894189444</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.7913288562259</v>
+        <v>168.7913288562258</v>
       </c>
       <c r="C25" t="n">
         <v>156.2061697729164</v>
@@ -24370,19 +24370,19 @@
         <v>137.5748216925009</v>
       </c>
       <c r="E25" t="n">
-        <v>135.3933113208577</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>134.3803966972198</v>
       </c>
       <c r="G25" t="n">
-        <v>155.4529171376662</v>
+        <v>155.4529171376661</v>
       </c>
       <c r="H25" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I25" t="n">
-        <v>99.37859413856057</v>
+        <v>99.37859413856054</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.92370107808138</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,19 +24418,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>96.2466996669354</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>137.1263883408624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.7913288562258</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C28" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>137.5748216925009</v>
+        <v>43.84182414080455</v>
       </c>
       <c r="E28" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F28" t="n">
-        <v>63.96278301169839</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G28" t="n">
-        <v>155.4529171376661</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H28" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I28" t="n">
-        <v>99.37859413856054</v>
+        <v>99.3785941385606</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>98.92370107808135</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>207.5440020263833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.37371517070467</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>156.2061697729164</v>
       </c>
       <c r="D31" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E31" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F31" t="n">
-        <v>134.3803966972198</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>155.4529171376661</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H31" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I31" t="n">
-        <v>99.37859413856054</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>98.92370107808135</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,19 +24892,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>148.4490580367455</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y31" t="n">
-        <v>207.5440020263833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>639904.3715111976</v>
+        <v>639904.3715111975</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>639904.3715111975</v>
+        <v>639904.3715111976</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>644958.1563456174</v>
+        <v>644958.1563456173</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>644958.1563456174</v>
+        <v>644958.1563456171</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>644958.1563456174</v>
+        <v>644958.1563456171</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710687</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.213501647</v>
       </c>
       <c r="F2" t="n">
         <v>742955.2135016473</v>
       </c>
       <c r="G2" t="n">
-        <v>748956.5829925197</v>
+        <v>748956.5829925193</v>
       </c>
       <c r="H2" t="n">
-        <v>748956.5829925193</v>
+        <v>748956.5829925191</v>
       </c>
       <c r="I2" t="n">
-        <v>748956.5829925193</v>
+        <v>748956.5829925195</v>
       </c>
       <c r="J2" t="n">
-        <v>748956.582992519</v>
+        <v>748956.5829925191</v>
       </c>
       <c r="K2" t="n">
-        <v>748956.582992519</v>
+        <v>748956.5829925194</v>
       </c>
       <c r="L2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="M2" t="n">
         <v>779989.6813710695</v>
       </c>
       <c r="N2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710696</v>
       </c>
       <c r="O2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710697</v>
       </c>
       <c r="P2" t="n">
-        <v>779989.6813710696</v>
+        <v>779989.6813710694</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,19 +26372,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8832.52106056901</v>
+        <v>8832.521060569099</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>54505.51210371256</v>
+        <v>54505.51210371252</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143902</v>
+        <v>15045.66962143918</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143906</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="G4" t="n">
-        <v>18678.59412427843</v>
+        <v>18678.59412427842</v>
       </c>
       <c r="H4" t="n">
-        <v>18678.59412427841</v>
+        <v>18678.5941242784</v>
       </c>
       <c r="I4" t="n">
         <v>18678.59412427842</v>
       </c>
       <c r="J4" t="n">
-        <v>18678.59412427844</v>
+        <v>18678.59412427841</v>
       </c>
       <c r="K4" t="n">
-        <v>18678.59412427842</v>
+        <v>18678.59412427841</v>
       </c>
       <c r="L4" t="n">
+        <v>37464.45686275959</v>
+      </c>
+      <c r="M4" t="n">
         <v>37464.4568627596</v>
       </c>
-      <c r="M4" t="n">
-        <v>37464.45686275959</v>
-      </c>
       <c r="N4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275963</v>
       </c>
       <c r="O4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275958</v>
       </c>
     </row>
     <row r="5">
@@ -26476,31 +26476,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
         <v>92915.50246501787</v>
       </c>
       <c r="H5" t="n">
-        <v>92915.50246501787</v>
+        <v>92915.50246501785</v>
       </c>
       <c r="I5" t="n">
         <v>92915.50246501787</v>
       </c>
       <c r="J5" t="n">
-        <v>92915.50246501787</v>
+        <v>92915.50246501785</v>
       </c>
       <c r="K5" t="n">
-        <v>92915.50246501787</v>
+        <v>92915.50246501785</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002538</v>
@@ -26509,7 +26509,7 @@
         <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-49612.23415810757</v>
+        <v>-49612.23415810781</v>
       </c>
       <c r="C6" t="n">
-        <v>540355.6450564371</v>
+        <v>540355.6450564367</v>
       </c>
       <c r="D6" t="n">
-        <v>540355.6450564369</v>
+        <v>540355.6450564368</v>
       </c>
       <c r="E6" t="n">
-        <v>110762.1814545952</v>
+        <v>110664.7223286229</v>
       </c>
       <c r="F6" t="n">
-        <v>635922.2179314917</v>
+        <v>635824.7588055194</v>
       </c>
       <c r="G6" t="n">
-        <v>628529.9653426545</v>
+        <v>628448.2992942893</v>
       </c>
       <c r="H6" t="n">
-        <v>637362.486403223</v>
+        <v>637280.8203548583</v>
       </c>
       <c r="I6" t="n">
-        <v>637362.486403223</v>
+        <v>637280.8203548586</v>
       </c>
       <c r="J6" t="n">
-        <v>460939.2672106299</v>
+        <v>460857.6011622654</v>
       </c>
       <c r="K6" t="n">
-        <v>637362.4864032228</v>
+        <v>637280.8203548585</v>
       </c>
       <c r="L6" t="n">
         <v>590304.6065845719</v>
       </c>
       <c r="M6" t="n">
-        <v>510009.1034544472</v>
+        <v>510009.1034544475</v>
       </c>
       <c r="N6" t="n">
+        <v>644810.1186882847</v>
+      </c>
+      <c r="O6" t="n">
+        <v>644810.1186882848</v>
+      </c>
+      <c r="P6" t="n">
         <v>644810.1186882844</v>
-      </c>
-      <c r="O6" t="n">
-        <v>644810.1186882845</v>
-      </c>
-      <c r="P6" t="n">
-        <v>644810.1186882847</v>
       </c>
     </row>
   </sheetData>
@@ -26692,34 +26692,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="H2" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="I2" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571146</v>
       </c>
       <c r="J2" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="K2" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964067</v>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26796,7 +26796,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26914,19 +26914,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571148</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,19 +27151,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>11.04065132571148</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>248.5720327015318</v>
       </c>
       <c r="F2" t="n">
-        <v>303.6383668238969</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>11.99007165458437</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>56.2595003824849</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>244.9000501058449</v>
       </c>
       <c r="H5" t="n">
-        <v>171.8070202733037</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>127.6929178914437</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>272.4729725277057</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>236.0793351214753</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>32.06708939393769</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28062,7 +28062,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>1.885271837007167</v>
       </c>
     </row>
     <row r="11">
@@ -28087,13 +28087,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28147,16 +28147,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.478997154632013e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28333,16 +28333,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="C19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="D19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="E19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="F19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="G19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="H19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="I19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="J19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="K19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="L19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="M19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="N19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="O19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="P19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="R19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="S19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="T19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="U19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="V19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="W19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="X19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
     </row>
     <row r="20">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="C22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="D22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="E22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="F22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="G22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="H22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="I22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="J22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="K22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="L22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="M22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="N22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="O22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="P22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="R22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="S22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="T22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="U22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="V22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="W22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="X22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571141</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571146</v>
       </c>
       <c r="C25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571146</v>
       </c>
       <c r="D25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571146</v>
       </c>
       <c r="E25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571146</v>
       </c>
       <c r="F25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571146</v>
       </c>
       <c r="G25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571146</v>
       </c>
       <c r="H25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571146</v>
       </c>
       <c r="I25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571146</v>
       </c>
       <c r="J25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571146</v>
       </c>
       <c r="K25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571146</v>
       </c>
       <c r="L25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571146</v>
       </c>
       <c r="M25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571146</v>
       </c>
       <c r="N25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571146</v>
       </c>
       <c r="O25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571146</v>
       </c>
       <c r="P25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571146</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571146</v>
       </c>
       <c r="R25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571146</v>
       </c>
       <c r="S25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571146</v>
       </c>
       <c r="T25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571146</v>
       </c>
       <c r="U25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571146</v>
       </c>
       <c r="V25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571146</v>
       </c>
       <c r="W25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571146</v>
       </c>
       <c r="X25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571146</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571146</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="C28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="D28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="E28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="F28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="G28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="H28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="I28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="J28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="K28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="L28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="M28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="N28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="O28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="P28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="R28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="S28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="T28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="U28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="V28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="W28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="X28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
     </row>
     <row r="29">
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="C31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="D31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="E31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="F31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="G31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="H31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="I31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="J31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="K31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="L31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="M31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="N31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="O31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="P31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="R31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="S31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="T31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="U31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="V31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="W31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="X31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571139</v>
       </c>
     </row>
     <row r="32">
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30235,10 +30235,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,10 +31926,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,10 +32163,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>434.7644551367889</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>607.5603230950777</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>482.1033309642231</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507416</v>
+        <v>212.353110871397</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556558</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
@@ -35820,10 +35820,10 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>383.956422297167</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.54842149127694</v>
+        <v>23.54842149127695</v>
       </c>
       <c r="K19" t="n">
         <v>162.743079855622</v>
@@ -36060,7 +36060,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.26635129758617</v>
+        <v>50.26635129758618</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>570.7728848187837</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>106.7510064679877</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.54842149127694</v>
+        <v>23.54842149127693</v>
       </c>
       <c r="K22" t="n">
         <v>162.743079855622</v>
@@ -36285,7 +36285,7 @@
         <v>261.2548382056399</v>
       </c>
       <c r="M22" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N22" t="n">
         <v>284.317529131315</v>
@@ -36297,7 +36297,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.26635129758617</v>
+        <v>50.26635129758616</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P23" t="n">
         <v>570.6060255109123</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36449,10 +36449,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>492.1965505854578</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.54842149127694</v>
+        <v>23.54842149127698</v>
       </c>
       <c r="K25" t="n">
         <v>162.743079855622</v>
       </c>
       <c r="L25" t="n">
-        <v>261.2548382056399</v>
+        <v>261.25483820564</v>
       </c>
       <c r="M25" t="n">
         <v>285.350492504684</v>
@@ -36534,7 +36534,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.26635129758617</v>
+        <v>50.2663512975862</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36686,16 +36686,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>632.1290025749652</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.54842149127697</v>
+        <v>23.54842149127691</v>
       </c>
       <c r="K28" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L28" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M28" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N28" t="n">
         <v>284.317529131315</v>
       </c>
       <c r="O28" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463142</v>
       </c>
       <c r="P28" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.2663512975862</v>
+        <v>50.26635129758614</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36917,19 +36917,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>670.927063341192</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>236.5687745713073</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.54842149127697</v>
+        <v>23.54842149127691</v>
       </c>
       <c r="K31" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L31" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M31" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N31" t="n">
         <v>284.317529131315</v>
       </c>
       <c r="O31" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463142</v>
       </c>
       <c r="P31" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.2663512975862</v>
+        <v>50.26635129758614</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37163,10 +37163,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>409.6164201553188</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37628,7 +37628,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>355.2284708785892</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37792,10 +37792,10 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
@@ -37862,7 +37862,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>418.5440206727429</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
